--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="m\月d\日"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Noto Sans CJK JP"/>
       <charset val="1"/>
@@ -41,6 +41,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -90,13 +97,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -106,7 +116,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -119,6 +129,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -128,7 +141,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -500,429 +513,435 @@
   </sheetPr>
   <dimension ref="A1:X868"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="14.65" customHeight="1" s="8">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
+    <row r="1" ht="14.65" customHeight="1" s="9">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Uc638d641cd892715128053544ff83fae</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>yyyy</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>dd</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>hh</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>latest_row</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>issue_id</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="12" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="K1" s="12" t="inlineStr">
         <is>
           <t>buffer1(今日明日明後日)</t>
         </is>
       </c>
-      <c r="L1" s="10" t="inlineStr">
+      <c r="L1" s="12" t="inlineStr">
         <is>
           <t>buffer2(何時何分)</t>
         </is>
       </c>
-      <c r="M1" s="10" t="inlineStr">
+      <c r="M1" s="12" t="inlineStr">
         <is>
           <t>buffer3(予定)</t>
         </is>
       </c>
-      <c r="N1" s="10" t="inlineStr">
+      <c r="N1" s="12" t="inlineStr">
         <is>
           <t>error_catch</t>
         </is>
       </c>
-      <c r="O1" s="10" t="inlineStr">
+      <c r="O1" s="12" t="inlineStr">
         <is>
           <t>mistake</t>
         </is>
       </c>
-      <c r="P1" s="10" t="inlineStr">
+      <c r="P1" s="12" t="inlineStr">
         <is>
           <t>send_id</t>
         </is>
       </c>
-      <c r="Q1" s="10" t="inlineStr">
+      <c r="Q1" s="12" t="inlineStr">
         <is>
           <t>bffer_id</t>
         </is>
       </c>
-      <c r="R1" s="10" t="inlineStr">
+      <c r="R1" s="12" t="inlineStr">
         <is>
           <t>buffer_date</t>
         </is>
       </c>
-      <c r="S1" s="10" t="inlineStr">
+      <c r="S1" s="12" t="inlineStr">
         <is>
           <t>true_date</t>
         </is>
       </c>
-      <c r="T1" s="10" t="inlineStr">
+      <c r="T1" s="12" t="inlineStr">
         <is>
           <t>true_time</t>
         </is>
       </c>
-      <c r="U1" s="10" t="inlineStr">
+      <c r="U1" s="12" t="inlineStr">
         <is>
           <t>b_month</t>
         </is>
       </c>
-      <c r="V1" s="10" t="inlineStr">
+      <c r="V1" s="12" t="inlineStr">
         <is>
           <t>b_day</t>
         </is>
       </c>
-      <c r="W1" s="10" t="inlineStr">
+      <c r="W1" s="12" t="inlineStr">
         <is>
           <t>b_hour</t>
         </is>
       </c>
-      <c r="X1" s="10" t="inlineStr">
+      <c r="X1" s="12" t="inlineStr">
         <is>
           <t>b_minute</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.65" customHeight="1" s="8">
-      <c r="A2" s="10" t="inlineStr">
+    <row r="2" ht="14.65" customHeight="1" s="9">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>らーめん</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>59</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>44138</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>0.9993055555555556</v>
+      </c>
+      <c r="M2" s="12" t="inlineStr">
         <is>
           <t>てすとととｔ</t>
         </is>
       </c>
-      <c r="B2" s="10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="10" t="n">
+      <c r="N2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>59</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10" t="n">
+      <c r="O2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="n">
-        <v>44138</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>0.9993055555555556</v>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>てすとととｔ</t>
-        </is>
-      </c>
-      <c r="N2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10" t="inlineStr">
+      <c r="P2" s="12" t="inlineStr">
         <is>
           <t>Ue3a335fb3123f05a8436c6c2f84c5b03</t>
         </is>
       </c>
-      <c r="R2" s="13" t="inlineStr">
+      <c r="R2" s="15" t="inlineStr">
         <is>
           <t>11月3日</t>
         </is>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="13">
         <f>DATEVALUE(R2)</f>
         <v/>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="16">
         <f>TIMEVALUE(L5)</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.65" customHeight="1" s="8">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="n">
+    <row r="3" ht="14.65" customHeight="1" s="9">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="11" t="inlineStr">
+      <c r="K3" s="13" t="inlineStr">
         <is>
           <t>明後日</t>
         </is>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="14" t="n">
         <v>0.5083333333333333</v>
       </c>
-      <c r="M3" s="10" t="inlineStr">
+      <c r="M3" s="12" t="inlineStr">
         <is>
           <t>てすと</t>
         </is>
       </c>
-      <c r="P3" s="15" t="inlineStr">
+      <c r="P3" s="17" t="inlineStr">
         <is>
           <t>Uc638d641cd892715128053544ff83fae</t>
         </is>
       </c>
-      <c r="Q3" s="10" t="n"/>
-    </row>
-    <row r="4" ht="14.65" customHeight="1" s="8">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
+      <c r="Q3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.65" customHeight="1" s="9">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="11" t="n"/>
-      <c r="K4" s="11" t="n">
+      <c r="J4" s="13" t="n"/>
+      <c r="K4" s="13" t="n">
         <v>44138</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="14" t="n">
         <v>0.4236111111111111</v>
       </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="8">
-      <c r="A5" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+      <c r="M4" s="12" t="inlineStr">
+        <is>
+          <t>unn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="9">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="11" t="n"/>
-      <c r="K5" s="11" t="inlineStr">
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>11月3日</t>
         </is>
       </c>
-      <c r="L5" s="10" t="inlineStr">
+      <c r="L5" s="12" t="inlineStr">
         <is>
           <t>11:11</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="8">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="J6" s="11" t="n"/>
-      <c r="K6" s="11" t="n"/>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="8">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="J7" s="11" t="n"/>
-      <c r="K7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="8">
-      <c r="A8" s="10">
+    <row r="6" ht="12.8" customHeight="1" s="9">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="9">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="9">
+      <c r="A8" s="12">
         <f>SUM(A1:A3)</f>
         <v/>
       </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="8">
-      <c r="A9" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="8">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="8">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="8">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="12.8" customHeight="1" s="8">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="K13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="12.8" customHeight="1" s="8">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="12.8" customHeight="1" s="8">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="12.8" customHeight="1" s="8">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="12.8" customHeight="1" s="8">
-      <c r="A17" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="12.8" customHeight="1" s="8">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="n"/>
-    </row>
-    <row r="19" ht="12.8" customHeight="1" s="8">
-      <c r="A19" s="10" t="inlineStr">
-        <is>
-          <t>kaito</t>
-        </is>
-      </c>
-    </row>
-    <row r="742" ht="12.8" customHeight="1" s="8">
-      <c r="G742" s="10" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr"/>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="9">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="9">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="9">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="9">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="9">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="K13" s="13" t="n"/>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="9">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="9">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="9">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="9">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="9">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+      <c r="I18" s="12" t="n"/>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="9">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>kaito</t>
+        </is>
+      </c>
+    </row>
+    <row r="742" ht="12.8" customHeight="1" s="9">
+      <c r="G742" s="12" t="inlineStr">
         <is>
           <t>カラカラ</t>
         </is>
       </c>
     </row>
-    <row r="868" ht="12.8" customHeight="1" s="8">
-      <c r="G868" s="10" t="inlineStr">
+    <row r="868" ht="12.8" customHeight="1" s="9">
+      <c r="G868" s="12" t="inlineStr">
         <is>
           <t>カラカラ</t>
         </is>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="8"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
